--- a/admin_tools/dependencies.xlsx
+++ b/admin_tools/dependencies.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M96"/>
+  <dimension ref="A1:N97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,9 @@
       <c r="M1" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="N1" s="1" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -494,15 +497,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>model_GPU.m</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>test_fit_resonance.m</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>gpu_fit_checkPlot.m</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
@@ -510,6 +517,7 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -527,7 +535,11 @@
           <t>model_gauss.m</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>model_gauss.m</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -537,6 +549,7 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -556,7 +569,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>fit_resonance.m</t>
+          <t>correct_global.m</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -576,6 +589,7 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -595,7 +609,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>fit_resonance.m</t>
+          <t>guess_peaks.m</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -607,6 +621,7 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -624,7 +639,11 @@
           <t>get_B111.m</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>get_B111.m</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -634,6 +653,7 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -653,7 +673,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>QDM_lorentzian_fit.m</t>
+          <t>ODMR_to_B111.m</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -665,6 +685,7 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -684,7 +705,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>GPU_fit.m</t>
+          <t>fit_resonance.m</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -700,6 +721,7 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -717,7 +739,11 @@
           <t>fit_resonance.m</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>fit_resonance.m</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -727,6 +753,7 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -744,7 +771,11 @@
           <t>fit_resonance.m</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>fit_resonance.m</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -754,6 +785,7 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -771,7 +803,11 @@
           <t>fit_resonance.m</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>fit_resonance.m</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -781,6 +817,7 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -798,7 +835,11 @@
           <t>fit_resonance.m</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>fit_resonance.m</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -808,6 +849,7 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -827,7 +869,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ODMR_to_B111.m</t>
+          <t>QDM_lorentzian_fit.m</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -843,6 +885,7 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -874,6 +917,7 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -909,24 +953,29 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>viscosity</t>
+          <t>load_data</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>/Users/mike/github/QDMlab/analysis</t>
+          <t>/Users/mike/github/QDMlab/fitting</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>viscosity.m</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>GPU_fit.m</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>GPU_fit.m</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -936,11 +985,12 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>globalFraction_estimator</t>
+          <t>viscosity</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -950,12 +1000,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>globalFraction_estimator.m</t>
+          <t>viscosity.m</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>testing_general.m</t>
+          <t>viscosity.m</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -967,11 +1017,12 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>updateRand</t>
+          <t>globalFraction_estimator</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -984,8 +1035,16 @@
           <t>globalFraction_estimator.m</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>globalFraction_estimator.m</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>testing_general.m</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
@@ -994,11 +1053,12 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>updatePlot</t>
+          <t>updateRand</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1071,11 @@
           <t>globalFraction_estimator.m</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>globalFraction_estimator.m</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1021,11 +1085,12 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>demag_behavior</t>
+          <t>updatePlot</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1035,19 +1100,15 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>demag_behavior.m</t>
+          <t>globalFraction_estimator.m</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>estimate_coercivity.m</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>test_estimate_coercivity.m</t>
-        </is>
-      </c>
+          <t>globalFraction_estimator.m</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -1056,11 +1117,12 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>estimate_coercivity</t>
+          <t>demag_behavior</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1070,11 +1132,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>estimate_coercivity.m</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+          <t>demag_behavior.m</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>demag_behavior.m</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>test_estimate_coercivity.m</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
@@ -1083,38 +1153,31 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>get_tform_multi</t>
+          <t>estimate_coercivity</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>/Users/mike/github/QDMlab/alignment_tools</t>
+          <t>/Users/mike/github/QDMlab/analysis</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>get_tform_multi.m</t>
+          <t>estimate_coercivity.m</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>get_transformed_maps.m</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>subtract_blank.m</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>dipole_fit_series.m</t>
-        </is>
-      </c>
+          <t>estimate_coercivity.m</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
@@ -1122,11 +1185,12 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>tform_bin_down</t>
+          <t>get_tform_multi</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1136,20 +1200,24 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>tform_bin_down.m</t>
+          <t>get_tform_multi.m</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>tform_data.m</t>
+          <t>get_tform_multi.m</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>test_alignment_and_transform.m</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+          <t>subtract_blank.m</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>dipole_fit_series.m</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
@@ -1157,11 +1225,12 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>get_image_tform</t>
+          <t>tform_bin_down</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,24 +1240,20 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>get_image_tform.m</t>
+          <t>tform_bin_down.m</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>get_tform_multi.m</t>
+          <t>tform_bin_down.m</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>subtract_blank.m</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
           <t>test_alignment_and_transform.m</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
@@ -1196,11 +1261,12 @@
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>get_transformed_maps</t>
+          <t>get_image_tform</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1210,20 +1276,24 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>get_transformed_maps.m</t>
+          <t>get_image_tform.m</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>viscosity.m</t>
+          <t>get_tform_multi.m</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>test_get_transformed_maps.m</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
+          <t>subtract_blank.m</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>test_alignment_and_transform.m</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
@@ -1231,11 +1301,12 @@
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>check_plot</t>
+          <t>get_transformed_maps</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1248,9 +1319,21 @@
           <t>get_transformed_maps.m</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>viscosity.m</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>get_transformed_maps.m</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>test_get_transformed_maps.m</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
@@ -1258,11 +1341,12 @@
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>align_images</t>
+          <t>check_plot</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1272,7 +1356,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>align_images.m</t>
+          <t>get_transformed_maps.m</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1289,11 +1373,12 @@
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>tform_bin_up</t>
+          <t>align_images</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1303,12 +1388,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>tform_bin_up.m</t>
+          <t>align_images.m</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>tform_bin_down.m</t>
+          <t>get_transformed_maps.m</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -1320,11 +1405,12 @@
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>get_image_tform_complex</t>
+          <t>tform_bin_up</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1334,12 +1420,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>get_image_tform_complex.m</t>
+          <t>tform_bin_up.m</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>align_images.m</t>
+          <t>tform_bin_down.m</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -1351,11 +1437,12 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>tform_data</t>
+          <t>get_image_tform_complex</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1365,79 +1452,77 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>tform_data.m</t>
+          <t>get_image_tform_complex.m</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>demag_behavior.m</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>get_transformed_maps.m</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>subtract_blank.m</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>test_alignment_and_transform.m</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>dipole_fit_series.m</t>
-        </is>
-      </c>
+          <t>align_images.m</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>pick_box2</t>
+          <t>tform_data</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>/Users/mike/github/QDMlab/picking_tools</t>
+          <t>/Users/mike/github/QDMlab/alignment_tools</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>pick_box2.m</t>
+          <t>tform_data.m</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>subtract_constant.m</t>
+          <t>demag_behavior.m</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>dipole_fit.m</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
+          <t>get_transformed_maps.m</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>subtract_blank.m</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>test_alignment_and_transform.m</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>dipole_fit_series.m</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>makeEven</t>
+          <t>pick_box2</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1450,9 +1535,21 @@
           <t>pick_box2.m</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>pick_box2.m</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>subtract_constant.m</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>dipole_fit.m</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
@@ -1460,11 +1557,12 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>limit_mask</t>
+          <t>makeEven</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1474,19 +1572,15 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>limit_mask.m</t>
+          <t>pick_box2.m</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>pick_box.m</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>create_masks.m</t>
-        </is>
-      </c>
+          <t>pick_box2.m</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
@@ -1495,11 +1589,12 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>pick_area</t>
+          <t>limit_mask</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1509,15 +1604,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>pick_area.m</t>
+          <t>limit_mask.m</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>limit_mask.m</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>create_masks.m</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
@@ -1526,11 +1625,12 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>pick_box</t>
+          <t>pick_area</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1540,24 +1640,20 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>pick_box.m</t>
+          <t>pick_area.m</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>pick_area.m</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>create_masks.m</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>testing_general.m</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>dipole_fit_series.m</t>
-        </is>
-      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
@@ -1565,11 +1661,12 @@
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>get_mask_extent</t>
+          <t>pick_box</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1579,55 +1676,68 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>get_mask_extent.m</t>
+          <t>pick_box.m</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>limit_mask.m</t>
+          <t>pick_box.m</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>subtract_blank.m</t>
+          <t>create_masks.m</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>demag_behavior_plot.m</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
+          <t>testing_general.m</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>dipole_fit_series.m</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>subtract_constant</t>
+          <t>get_mask_extent</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>/Users/mike/github/QDMlab/map_editing</t>
+          <t>/Users/mike/github/QDMlab/picking_tools</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>subtract_constant.m</t>
+          <t>get_mask_extent.m</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>testing_general.m</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+          <t>limit_mask.m</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>subtract_blank.m</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>demag_behavior_plot.m</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
@@ -1635,11 +1745,12 @@
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>filter_hot_pixels</t>
+          <t>subtract_constant</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1649,56 +1760,33 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>filter_hot_pixels.m</t>
+          <t>subtract_constant.m</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>demag_behavior.m</t>
+          <t>subtract_constant.m</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>get_transformed_maps.m</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>pick_box.m</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>threshold_QDM_map.m</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>check_fits.m</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>test_fit_resonance.m</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>QDM_figure.m</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>dipole_fit_series.m</t>
-        </is>
-      </c>
+          <t>testing_general.m</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>subtract_source</t>
+          <t>filter_hot_pixels</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1708,28 +1796,57 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>subtract_source.m</t>
+          <t>filter_hot_pixels.m</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>testing_general.m</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+          <t>demag_behavior.m</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>get_transformed_maps.m</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>pick_box.m</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>filter_hot_pixels.m</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>check_fits.m</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>test_fit_resonance.m</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>QDM_figure.m</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>dipole_fit_series.m</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>crop_map</t>
+          <t>subtract_source</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1739,7 +1856,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>crop_map.m</t>
+          <t>subtract_source.m</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1760,11 +1877,12 @@
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>make_square_hole</t>
+          <t>crop_map</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1774,11 +1892,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>make_square_hole.m</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+          <t>crop_map.m</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>subtract_source.m</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>testing_general.m</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
@@ -1787,11 +1913,12 @@
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>FitMoment</t>
+          <t>make_square_hole</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1801,10 +1928,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>FitMoment.m</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+          <t>make_square_hole.m</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>make_square_hole.m</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -1814,26 +1945,27 @@
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>QDMBzFromBu</t>
+          <t>FitMoment</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>/Users/mike/github/QDMlab/Bz_and_UpCont</t>
+          <t>/Users/mike/github/QDMlab/map_editing</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>QDMBzFromBu.m</t>
+          <t>FitMoment.m</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>B111ToBz_CommLine.m</t>
+          <t>FitMoment.m</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -1845,29 +1977,34 @@
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>threshold_QDM_map</t>
+          <t>QDMBzFromBu</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>/Users/mike/github/QDMlab/map_editing</t>
+          <t>/Users/mike/github/QDMlab/Bz_and_UpCont</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>threshold_QDM_map.m</t>
+          <t>QDMBzFromBu.m</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>test_threshold_QDM_map.m</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
+          <t>QDMBzFromBu.m</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>B111ToBz_CommLine.m</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
@@ -1876,11 +2013,12 @@
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>RMSInBox</t>
+          <t>threshold_QDM_map</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1890,11 +2028,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>RMSInBox.m</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+          <t>threshold_QDM_map.m</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>threshold_QDM_map.m</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>test_threshold_QDM_map.m</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
@@ -1903,33 +2049,30 @@
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>MITBxByFromBz</t>
+          <t>RMSInBox</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>/Users/mike/github/QDMlab/Bz_and_UpCont</t>
+          <t>/Users/mike/github/QDMlab/map_editing</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>MITBxByFromBz.m</t>
+          <t>RMSInBox.m</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>subtract_source.m</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>B111ToBz_CommLine.m</t>
-        </is>
-      </c>
+          <t>RMSInBox.m</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
@@ -1938,29 +2081,34 @@
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>subtract_blank</t>
+          <t>MITBxByFromBz</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>/Users/mike/github/QDMlab/map_editing</t>
+          <t>/Users/mike/github/QDMlab/Bz_and_UpCont</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>subtract_blank.m</t>
+          <t>MITBxByFromBz.m</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>test_alignment_and_transform.m</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
+          <t>subtract_source.m</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>B111ToBz_CommLine.m</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
@@ -1969,11 +2117,12 @@
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>crop_data</t>
+          <t>subtract_blank</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1983,15 +2132,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>crop_data.m</t>
+          <t>subtract_blank.m</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>demag_behavior.m</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
+          <t>subtract_blank.m</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>test_alignment_and_transform.m</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
@@ -2000,31 +2153,32 @@
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>QuadBGsub</t>
+          <t>crop_data</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>/Users/mike/github/QDMlab/Bz_and_UpCont</t>
+          <t>/Users/mike/github/QDMlab/map_editing</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>QuadBGsub.m</t>
+          <t>crop_data.m</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>GPU_fit.m</t>
+          <t>demag_behavior.m</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>B111ToBz_CommLine.m</t>
+          <t>crop_data.m</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -2035,36 +2189,37 @@
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>show_references</t>
+          <t>QuadBGsub</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>/Users/mike/github/QDMlab/utilities</t>
+          <t>/Users/mike/github/QDMlab/Bz_and_UpCont</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>show_references.m</t>
+          <t>QuadBGsub.m</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>fit_resonance.m</t>
+          <t>GPU_fit.m</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>subtract_source.m</t>
+          <t>QuadBGsub.m</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>QDMdataprocessing.m</t>
+          <t>B111ToBz_CommLine.m</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -2074,11 +2229,12 @@
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>correct_cell_shape</t>
+          <t>show_references</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2088,56 +2244,41 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>correct_cell_shape.m</t>
+          <t>show_references.m</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>ODMR_to_B111.m</t>
+          <t>fit_resonance.m</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>demag_behavior.m</t>
+          <t>subtract_source.m</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>get_tform_multi.m</t>
+          <t>show_references.m</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>subtract_blank.m</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>automatic_input_ui__.m</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>test_correct_cell_shape.m</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>foldersMustExist.m</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>dipole_fit_series.m</t>
-        </is>
-      </c>
+          <t>QDMdataprocessing.m</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>detect_binning</t>
+          <t>correct_cell_shape</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2147,44 +2288,57 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>detect_binning.m</t>
+          <t>correct_cell_shape.m</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>get_transformed_maps.m</t>
+          <t>ODMR_to_B111.m</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>crop_map.m</t>
+          <t>demag_behavior.m</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>check_fits.m</t>
+          <t>get_tform_multi.m</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>plotResults_CommLine.m</t>
+          <t>subtract_blank.m</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>dipole_fit.m</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+          <t>correct_cell_shape.m</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>test_correct_cell_shape.m</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>foldersMustExist.m</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>dipole_fit_series.m</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>check_fits</t>
+          <t>detect_binning</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2194,24 +2348,45 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>check_fits.m</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
+          <t>detect_binning.m</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>get_transformed_maps.m</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>crop_map.m</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>detect_binning.m</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>plotResults_CommLine.m</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>dipole_fit.m</t>
+        </is>
+      </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>shift_matrix</t>
+          <t>check_fits</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2221,12 +2396,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>shift_matrix.m</t>
+          <t>check_fits.m</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>demag_behavior.m</t>
+          <t>check_fits.m</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -2238,11 +2413,12 @@
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>ask_ferro_para</t>
+          <t>shift_matrix</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2252,11 +2428,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ask_ferro_para.m</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+          <t>shift_matrix.m</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>demag_behavior.m</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>shift_matrix.m</t>
+        </is>
+      </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
@@ -2265,11 +2449,12 @@
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>index2xy</t>
+          <t>ask_ferro_para</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2279,24 +2464,16 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>index2xy.m</t>
+          <t>ask_ferro_para.m</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>globalFraction_estimator.m</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>xy2index.m</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>testing_general.m</t>
-        </is>
-      </c>
+          <t>ask_ferro_para.m</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
@@ -2304,11 +2481,12 @@
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>xy2index</t>
+          <t>index2xy</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2318,22 +2496,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>xy2index.m</t>
+          <t>index2xy.m</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>globalFraction_estimator.m</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
           <t>index2xy.m</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>test_fit_resonance.m</t>
-        </is>
-      </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>gpu_fit_checkPlot.m</t>
+          <t>testing_general.m</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -2343,11 +2521,12 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>ask_arguments</t>
+          <t>xy2index</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2357,40 +2536,37 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ask_arguments.m</t>
+          <t>xy2index.m</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>ODMR_to_B111.m</t>
+          <t>index2xy.m</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>globalFraction_estimator.m</t>
+          <t>test_fit_resonance.m</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>threshold_QDM_map.m</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>dipole_fit.m</t>
-        </is>
-      </c>
+          <t>gpu_fit_checkPlot.m</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>reshape_QDM_data</t>
+          <t>ask_arguments</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2400,24 +2576,45 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>reshape_QDM_data.m</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
+          <t>ask_arguments.m</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>ODMR_to_B111.m</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>globalFraction_estimator.m</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>threshold_QDM_map.m</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>ask_arguments.m</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>dipole_fit.m</t>
+        </is>
+      </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>automatic_input_ui__</t>
+          <t>reshape_QDM_data</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2427,52 +2624,29 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>automatic_input_ui__.m</t>
+          <t>reshape_QDM_data.m</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>ODMR_to_B111.m</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>viscosity.m</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>pick_box2.m</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>subtract_constant.m</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>QDM_figure.m</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>upward_continue.m</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>dipole_fit.m</t>
-        </is>
-      </c>
+          <t>reshape_QDM_data.m</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>check_suffix</t>
+          <t>automatic_input_ui__</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2482,40 +2656,57 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>check_suffix.m</t>
+          <t>automatic_input_ui__.m</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
+          <t>ODMR_to_B111.m</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
           <t>viscosity.m</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>get_tform_multi.m</t>
-        </is>
-      </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>fileMustExistInFolder.m</t>
+          <t>pick_box2.m</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
+          <t>subtract_constant.m</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>automatic_input_ui__.m</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>QDM_figure.m</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
           <t>upward_continue.m</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>dipole_fit.m</t>
+        </is>
+      </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>return_bin_data</t>
+          <t>check_suffix</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2525,28 +2716,45 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>return_bin_data.m</t>
+          <t>check_suffix.m</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>testing_general.m</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
+          <t>viscosity.m</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>get_tform_multi.m</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>check_suffix.m</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>fileMustExistInFolder.m</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>upward_continue.m</t>
+        </is>
+      </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>QDMreshape_reverse</t>
+          <t>return_bin_data</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2556,15 +2764,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>QDMreshape_reverse.m</t>
+          <t>return_bin_data.m</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>globalFraction_estimator.m</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr"/>
+          <t>return_bin_data.m</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>testing_general.m</t>
+        </is>
+      </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
@@ -2573,11 +2785,12 @@
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>prepare_raw_data</t>
+          <t>QDMreshape_reverse</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2587,24 +2800,20 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>prepare_raw_data.m</t>
+          <t>QDMreshape_reverse.m</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>fit_resonance.m</t>
+          <t>globalFraction_estimator.m</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>globalFraction_estimator.m</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>test_weird_fitting.m</t>
-        </is>
-      </c>
+          <t>QDMreshape_reverse.m</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
@@ -2612,11 +2821,12 @@
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>QDMreshape</t>
+          <t>prepare_raw_data</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2626,28 +2836,41 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>QDMreshape.m</t>
+          <t>prepare_raw_data.m</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>reshape_QDM_data.m</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
+          <t>fit_resonance.m</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>globalFraction_estimator.m</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>prepare_raw_data.m</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>test_weird_fitting.m</t>
+        </is>
+      </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>re_bin</t>
+          <t>QDMreshape</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2657,19 +2880,15 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>re_bin.m</t>
+          <t>QDMreshape.m</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>create_masks.m</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>demag_behavior_plot.m</t>
-        </is>
-      </c>
+          <t>reshape_QDM_data.m</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
@@ -2678,11 +2897,12 @@
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>get_laser</t>
+          <t>re_bin</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2692,15 +2912,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>get_laser.m</t>
+          <t>re_bin.m</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>align_images.m</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr"/>
+          <t>re_bin.m</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>demag_behavior_plot.m</t>
+        </is>
+      </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
@@ -2709,11 +2933,12 @@
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>logMsg</t>
+          <t>get_laser</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2723,64 +2948,33 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>logMsg.m</t>
+          <t>get_laser.m</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>model_GPU.m</t>
+          <t>align_images.m</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>guess_peaks.m</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>viscosity.m</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>get_tform_multi.m</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>pick_box2.m</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>subtract_constant.m</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>ask_arguments.m</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>coercivity_result_plot.m</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>B111ToBz_CommLine.m</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>dipole_fit.m</t>
-        </is>
-      </c>
+          <t>get_laser.m</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>split_msg</t>
+          <t>logMsg</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2793,21 +2987,62 @@
           <t>logMsg.m</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>model_GPU.m</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>guess_peaks.m</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>viscosity.m</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>get_tform_multi.m</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>pick_box2.m</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>subtract_constant.m</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>xy2index.m</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>coercivity_result_plot.m</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>B111ToBz_CommLine.m</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>dipole_fit.m</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>create_masks</t>
+          <t>split_msg</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2817,12 +3052,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>create_masks.m</t>
+          <t>logMsg.m</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>demag_behavior.m</t>
+          <t>logMsg.m</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -2834,11 +3069,12 @@
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>detect_saturated</t>
+          <t>create_masks</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2848,11 +3084,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>detect_saturated.m</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+          <t>create_masks.m</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>demag_behavior.m</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>create_masks.m</t>
+        </is>
+      </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
@@ -2861,11 +3105,12 @@
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>BinImage</t>
+          <t>detect_saturated</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2875,12 +3120,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>BinImage.m</t>
+          <t>detect_saturated.m</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>test_fit_resonance.m</t>
+          <t>detect_saturated.m</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -2892,25 +3137,34 @@
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>convert_to</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>/Users/mike/github/QDMlab/testing</t>
+          <t>/Users/mike/github/QDMlab/utilities</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>test_fit_resonance.m</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
+          <t>convert_to.m</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>convert_to.m</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>demag_behavior_plot.m</t>
+        </is>
+      </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
@@ -2919,31 +3173,32 @@
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>coercivity_result_plot</t>
+          <t>BinImage</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>/Users/mike/github/QDMlab/plotting</t>
+          <t>/Users/mike/github/QDMlab/utilities</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>coercivity_result_plot.m</t>
+          <t>BinImage.m</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>test_estimate_coercivity.m</t>
+          <t>BinImage.m</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>demag_behavior_plot.m</t>
+          <t>test_fit_resonance.m</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -2954,26 +3209,27 @@
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>scalebar</t>
+          <t>test</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>/Users/mike/github/QDMlab/plotting</t>
+          <t>/Users/mike/github/QDMlab/testing</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>scalebar.m</t>
+          <t>test_fit_resonance.m</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>QDM_figure.m</t>
+          <t>test_fit_resonance.m</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -2985,11 +3241,12 @@
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>demag_behavior_plot</t>
+          <t>coercivity_result_plot</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2999,24 +3256,20 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>demag_behavior_plot.m</t>
+          <t>coercivity_result_plot.m</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>demag_behavior.m</t>
+          <t>test_estimate_coercivity.m</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>testing_general.m</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
           <t>coercivity_result_plot.m</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
@@ -3024,11 +3277,12 @@
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>QDM_figure</t>
+          <t>scalebar</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3038,56 +3292,29 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>QDM_figure.m</t>
+          <t>scalebar.m</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>viscosity.m</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>get_transformed_maps.m</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>pick_box2.m</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>subtract_constant.m</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>test_threshold_QDM_map.m</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>demag_behavior_plot.m</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>upward_continue.m</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>dipole_fit.m</t>
-        </is>
-      </c>
+          <t>scalebar.m</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>convert_to</t>
+          <t>demag_behavior_plot</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3097,12 +3324,24 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>QDM_figure.m</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
+          <t>demag_behavior_plot.m</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>demag_behavior.m</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>testing_general.m</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>coercivity_result_plot.m</t>
+        </is>
+      </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
@@ -3110,11 +3349,12 @@
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>plotResults_CommLine</t>
+          <t>QDM_figure</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3124,28 +3364,57 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>plotResults_CommLine.m</t>
+          <t>QDM_figure.m</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>ODMR_to_B111.m</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+          <t>viscosity.m</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>get_transformed_maps.m</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>pick_box2.m</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>subtract_constant.m</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>test_threshold_QDM_map.m</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>demag_behavior_plot.m</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>upward_continue.m</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>dipole_fit.m</t>
+        </is>
+      </c>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>clickFitFcn</t>
+          <t>plotResults_CommLine</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3160,19 +3429,15 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>check_fits.m</t>
+          <t>ODMR_to_B111.m</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>test_fit_resonance.m</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>gpu_fit_checkPlot.m</t>
-        </is>
-      </c>
+          <t>plotResults_CommLine.m</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
@@ -3180,11 +3445,12 @@
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>ODMR_to_B111_plot</t>
+          <t>clickFitFcn</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3194,15 +3460,19 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>ODMR_to_B111_plot.m</t>
+          <t>plotResults_CommLine.m</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
+          <t>test_fit_resonance.m</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
           <t>plotResults_CommLine.m</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
@@ -3211,11 +3481,12 @@
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>add_ROI</t>
+          <t>ODMR_to_B111_plot</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3225,12 +3496,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>add_ROI.m</t>
+          <t>ODMR_to_B111_plot.m</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>QDM_figure.m</t>
+          <t>plotResults_CommLine.m</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -3242,11 +3513,12 @@
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>gpu_fit_checkPlot</t>
+          <t>add_ROI</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3256,12 +3528,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>gpu_fit_checkPlot.m</t>
+          <t>add_ROI.m</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>fit_resonance.m</t>
+          <t>QDM_figure.m</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -3273,74 +3545,48 @@
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>is_B111</t>
+          <t>gpu_fit_checkPlot</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>/Users/mike/github/QDMlab/validators</t>
+          <t>/Users/mike/github/QDMlab/plotting</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>is_B111.m</t>
+          <t>gpu_fit_checkPlot.m</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>viscosity.m</t>
+          <t>fit_resonance.m</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>get_transformed_maps.m</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>pick_box2.m</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>subtract_constant.m</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>detect_binning.m</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>test_is_B111.m</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>QDM_figure.m</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>upward_continue.m</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>dipole_fit.m</t>
-        </is>
-      </c>
+          <t>gpu_fit_checkPlot.m</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>folderMustExist</t>
+          <t>is_B111</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3350,28 +3596,65 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>folderMustExist.m</t>
+          <t>is_B111.m</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>foldersMustExist.m</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
+          <t>viscosity.m</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>get_transformed_maps.m</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>pick_box2.m</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>subtract_constant.m</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>detect_binning.m</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>test_is_B111.m</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>QDM_figure.m</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>is_B111.m</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>upward_continue.m</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>dipole_fit.m</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>mustBeBoolean</t>
+          <t>folderMustExist</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3381,64 +3664,29 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>mustBeBoolean.m</t>
+          <t>folderMustExist.m</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>model_GPU.m</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>guess_peaks.m</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>viscosity.m</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>get_tform_multi.m</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>pick_box2.m</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>filter_hot_pixels.m</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>create_masks.m</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>coercivity_result_plot.m</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>upward_continue.m</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>dipole_fit.m</t>
-        </is>
-      </c>
+          <t>folderMustExist.m</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>foldersMustExist</t>
+          <t>mustBeBoolean</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3448,36 +3696,69 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>foldersMustExist.m</t>
+          <t>mustBeBoolean.m</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>ODMR_to_B111.m</t>
+          <t>model_GPU.m</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>demag_behavior.m</t>
+          <t>guess_peaks.m</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>align_images.m</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
+          <t>viscosity.m</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>get_tform_multi.m</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>pick_box2.m</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>filter_hot_pixels.m</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>create_masks.m</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>coercivity_result_plot.m</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>mustBeBoolean.m</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>upward_continue.m</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>dipole_fit.m</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>fileMustExistInFolder</t>
+          <t>foldersMustExist</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3487,47 +3768,68 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>fileMustExistInFolder.m</t>
+          <t>foldersMustExist.m</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
+          <t>ODMR_to_B111.m</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
           <t>demag_behavior.m</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>align_images.m</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>foldersMustExist.m</t>
+        </is>
+      </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>B111ToBz_CommLine</t>
+          <t>fileMustExistInFolder</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>/Users/mike/github/QDMlab/Bz_and_UpCont</t>
+          <t>/Users/mike/github/QDMlab/validators</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>B111ToBz_CommLine.m</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
+          <t>fileMustExistInFolder.m</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>demag_behavior.m</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>align_images.m</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>fileMustExistInFolder.m</t>
+        </is>
+      </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
@@ -3535,11 +3837,12 @@
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>upward_continue</t>
+          <t>B111ToBz_CommLine</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3549,10 +3852,14 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>upward_continue.m</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
+          <t>B111ToBz_CommLine.m</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>B111ToBz_CommLine.m</t>
+        </is>
+      </c>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
@@ -3562,11 +3869,12 @@
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>makeEvenArray</t>
+          <t>upward_continue</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3579,7 +3887,11 @@
           <t>upward_continue.m</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>upward_continue.m</t>
+        </is>
+      </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
@@ -3589,11 +3901,12 @@
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>UpCont</t>
+          <t>makeEvenArray</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3603,24 +3916,16 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>UpCont.m</t>
+          <t>upward_continue.m</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>get_transformed_maps.m</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
           <t>upward_continue.m</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>dipole_fit_series.m</t>
-        </is>
-      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
@@ -3628,31 +3933,32 @@
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>dipole_fit</t>
+          <t>UpCont</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>/Users/mike/github/QDMlab/net_moment_analysis</t>
+          <t>/Users/mike/github/QDMlab/Bz_and_UpCont</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>dipole_fit.m</t>
+          <t>UpCont.m</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>subtract_source.m</t>
+          <t>get_transformed_maps.m</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>testing_general.m</t>
+          <t>upward_continue.m</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3667,11 +3973,12 @@
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>checkPlotFigure</t>
+          <t>dipole_fit</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3684,9 +3991,21 @@
           <t>dipole_fit.m</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>subtract_source.m</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>testing_general.m</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>dipole_fit.m</t>
+        </is>
+      </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
@@ -3694,11 +4013,12 @@
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>SourceFitMultiP8</t>
+          <t>checkPlotFigure</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3708,19 +4028,15 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>SourceFitMultiP8.m</t>
+          <t>dipole_fit.m</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>FitMoment.m</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
           <t>dipole_fit.m</t>
         </is>
       </c>
+      <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
@@ -3729,11 +4045,12 @@
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>dipole_fit_series</t>
+          <t>SourceFitMultiP8</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3743,15 +4060,19 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>dipole_fit_series.m</t>
+          <t>SourceFitMultiP8.m</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>testing_general.m</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr"/>
+          <t>FitMoment.m</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>dipole_fit.m</t>
+        </is>
+      </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
@@ -3760,6 +4081,43 @@
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>dipole_fit_series</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>/Users/mike/github/QDMlab/net_moment_analysis</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>dipole_fit_series.m</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>testing_general.m</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>dipole_fit_series.m</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/admin_tools/dependencies.xlsx
+++ b/admin_tools/dependencies.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N97"/>
+  <dimension ref="A1:N98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2418,7 +2418,7 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>shift_matrix</t>
+          <t>reshapeImg</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2428,19 +2428,15 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>shift_matrix.m</t>
+          <t>check_fits.m</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>demag_behavior.m</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>shift_matrix.m</t>
-        </is>
-      </c>
+          <t>check_fits.m</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
@@ -2454,7 +2450,7 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>ask_ferro_para</t>
+          <t>shift_matrix</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2464,15 +2460,19 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ask_ferro_para.m</t>
+          <t>shift_matrix.m</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>ask_ferro_para.m</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
+          <t>demag_behavior.m</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>shift_matrix.m</t>
+        </is>
+      </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
@@ -2486,7 +2486,7 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>index2xy</t>
+          <t>ask_ferro_para</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2496,24 +2496,16 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>index2xy.m</t>
+          <t>ask_ferro_para.m</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>globalFraction_estimator.m</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>index2xy.m</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>testing_general.m</t>
-        </is>
-      </c>
+          <t>ask_ferro_para.m</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
@@ -2526,7 +2518,7 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>xy2index</t>
+          <t>index2xy</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2536,22 +2528,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>xy2index.m</t>
+          <t>index2xy.m</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>globalFraction_estimator.m</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
           <t>index2xy.m</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>test_fit_resonance.m</t>
-        </is>
-      </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>gpu_fit_checkPlot.m</t>
+          <t>testing_general.m</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -2566,7 +2558,7 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>ask_arguments</t>
+          <t>xy2index</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2576,34 +2568,26 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ask_arguments.m</t>
+          <t>xy2index.m</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>ODMR_to_B111.m</t>
+          <t>index2xy.m</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>globalFraction_estimator.m</t>
+          <t>test_fit_resonance.m</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>threshold_QDM_map.m</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>ask_arguments.m</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>dipole_fit.m</t>
-        </is>
-      </c>
+          <t>gpu_fit_checkPlot.m</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2614,7 +2598,7 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>reshape_QDM_data</t>
+          <t>ask_arguments</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2624,18 +2608,34 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>reshape_QDM_data.m</t>
+          <t>ask_arguments.m</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>reshape_QDM_data.m</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
+          <t>ODMR_to_B111.m</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>globalFraction_estimator.m</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>threshold_QDM_map.m</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>ask_arguments.m</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>dipole_fit.m</t>
+        </is>
+      </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2646,7 +2646,7 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>automatic_input_ui__</t>
+          <t>reshape_QDM_data</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2656,49 +2656,21 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>automatic_input_ui__.m</t>
+          <t>reshape_QDM_data.m</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>ODMR_to_B111.m</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>viscosity.m</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>pick_box2.m</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>subtract_constant.m</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>automatic_input_ui__.m</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>QDM_figure.m</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>upward_continue.m</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>dipole_fit.m</t>
-        </is>
-      </c>
+          <t>reshape_QDM_data.m</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
@@ -2706,7 +2678,7 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>check_suffix</t>
+          <t>automatic_input_ui__</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2716,37 +2688,49 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>check_suffix.m</t>
+          <t>automatic_input_ui__.m</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
+          <t>ODMR_to_B111.m</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
           <t>viscosity.m</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>get_tform_multi.m</t>
-        </is>
-      </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>check_suffix.m</t>
+          <t>pick_box2.m</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>fileMustExistInFolder.m</t>
+          <t>subtract_constant.m</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
+          <t>automatic_input_ui__.m</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>QDM_figure.m</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
           <t>upward_continue.m</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>dipole_fit.m</t>
+        </is>
+      </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
@@ -2754,7 +2738,7 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>return_bin_data</t>
+          <t>check_suffix</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2764,22 +2748,34 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>return_bin_data.m</t>
+          <t>check_suffix.m</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>return_bin_data.m</t>
+          <t>viscosity.m</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>testing_general.m</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
+          <t>get_tform_multi.m</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>check_suffix.m</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>fileMustExistInFolder.m</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>upward_continue.m</t>
+        </is>
+      </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2790,7 +2786,7 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>QDMreshape_reverse</t>
+          <t>return_bin_data</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2800,17 +2796,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>QDMreshape_reverse.m</t>
+          <t>return_bin_data.m</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>globalFraction_estimator.m</t>
+          <t>return_bin_data.m</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>QDMreshape_reverse.m</t>
+          <t>testing_general.m</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -2826,7 +2822,7 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>prepare_raw_data</t>
+          <t>QDMreshape_reverse</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2836,29 +2832,21 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>prepare_raw_data.m</t>
+          <t>QDMreshape_reverse.m</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>fit_resonance.m</t>
+          <t>globalFraction_estimator.m</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>globalFraction_estimator.m</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>prepare_raw_data.m</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>test_weird_fitting.m</t>
-        </is>
-      </c>
+          <t>QDMreshape_reverse.m</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2870,7 +2858,7 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>QDMreshape</t>
+          <t>prepare_raw_data</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2880,17 +2868,29 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>QDMreshape.m</t>
+          <t>prepare_raw_data.m</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>reshape_QDM_data.m</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
+          <t>fit_resonance.m</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>globalFraction_estimator.m</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>prepare_raw_data.m</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>test_weird_fitting.m</t>
+        </is>
+      </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2902,7 +2902,7 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>re_bin</t>
+          <t>QDMreshape</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2912,19 +2912,15 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>re_bin.m</t>
+          <t>QDMreshape.m</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>re_bin.m</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>demag_behavior_plot.m</t>
-        </is>
-      </c>
+          <t>reshape_QDM_data.m</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
@@ -2938,7 +2934,7 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>get_laser</t>
+          <t>re_bin</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2948,17 +2944,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>get_laser.m</t>
+          <t>re_bin.m</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>align_images.m</t>
+          <t>re_bin.m</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>get_laser.m</t>
+          <t>demag_behavior_plot.m</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -2974,7 +2970,7 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>logMsg</t>
+          <t>get_laser</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2984,65 +2980,33 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>logMsg.m</t>
+          <t>get_laser.m</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>model_GPU.m</t>
+          <t>align_images.m</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>guess_peaks.m</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>viscosity.m</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>get_tform_multi.m</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>pick_box2.m</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>subtract_constant.m</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>xy2index.m</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>coercivity_result_plot.m</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>B111ToBz_CommLine.m</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>dipole_fit.m</t>
-        </is>
-      </c>
+          <t>get_laser.m</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>split_msg</t>
+          <t>logMsg</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3057,24 +3021,60 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>logMsg.m</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
+          <t>model_GPU.m</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>guess_peaks.m</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>viscosity.m</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>get_tform_multi.m</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>pick_box2.m</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>subtract_constant.m</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>xy2index.m</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>coercivity_result_plot.m</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>B111ToBz_CommLine.m</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>dipole_fit.m</t>
+        </is>
+      </c>
       <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>create_masks</t>
+          <t>split_msg</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3084,19 +3084,15 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>create_masks.m</t>
+          <t>logMsg.m</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>demag_behavior.m</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>create_masks.m</t>
-        </is>
-      </c>
+          <t>logMsg.m</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
@@ -3110,7 +3106,7 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>detect_saturated</t>
+          <t>create_masks</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3120,15 +3116,19 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>detect_saturated.m</t>
+          <t>create_masks.m</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>detect_saturated.m</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr"/>
+          <t>demag_behavior.m</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>create_masks.m</t>
+        </is>
+      </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
@@ -3142,7 +3142,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>convert_to</t>
+          <t>detect_saturated</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3152,19 +3152,15 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>convert_to.m</t>
+          <t>detect_saturated.m</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>convert_to.m</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>demag_behavior_plot.m</t>
-        </is>
-      </c>
+          <t>detect_saturated.m</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
@@ -3178,7 +3174,7 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>BinImage</t>
+          <t>convert_to</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3188,17 +3184,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>BinImage.m</t>
+          <t>convert_to.m</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>BinImage.m</t>
+          <t>convert_to.m</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>test_fit_resonance.m</t>
+          <t>demag_behavior_plot.m</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -3214,25 +3210,29 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>BinImage</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>/Users/mike/github/QDMlab/testing</t>
+          <t>/Users/mike/github/QDMlab/utilities</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>BinImage.m</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>BinImage.m</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
           <t>test_fit_resonance.m</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>test_fit_resonance.m</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
@@ -3246,29 +3246,25 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>coercivity_result_plot</t>
+          <t>test</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>/Users/mike/github/QDMlab/plotting</t>
+          <t>/Users/mike/github/QDMlab/testing</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>coercivity_result_plot.m</t>
+          <t>test_fit_resonance.m</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>test_estimate_coercivity.m</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>coercivity_result_plot.m</t>
-        </is>
-      </c>
+          <t>test_fit_resonance.m</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
@@ -3282,7 +3278,7 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>scalebar</t>
+          <t>coercivity_result_plot</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3292,15 +3288,19 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>scalebar.m</t>
+          <t>coercivity_result_plot.m</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>scalebar.m</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr"/>
+          <t>test_estimate_coercivity.m</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>coercivity_result_plot.m</t>
+        </is>
+      </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
@@ -3314,7 +3314,7 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>demag_behavior_plot</t>
+          <t>scalebar</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3324,24 +3324,16 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>demag_behavior_plot.m</t>
+          <t>scalebar.m</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>demag_behavior.m</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>testing_general.m</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>coercivity_result_plot.m</t>
-        </is>
-      </c>
+          <t>scalebar.m</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
@@ -3354,7 +3346,7 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>QDM_figure</t>
+          <t>demag_behavior_plot</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3364,49 +3356,29 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>QDM_figure.m</t>
+          <t>demag_behavior_plot.m</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>viscosity.m</t>
+          <t>demag_behavior.m</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>get_transformed_maps.m</t>
+          <t>testing_general.m</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>pick_box2.m</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>subtract_constant.m</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>test_threshold_QDM_map.m</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>demag_behavior_plot.m</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>upward_continue.m</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>dipole_fit.m</t>
-        </is>
-      </c>
+          <t>coercivity_result_plot.m</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
@@ -3414,7 +3386,7 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>plotResults_CommLine</t>
+          <t>QDM_figure</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3424,25 +3396,49 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>plotResults_CommLine.m</t>
+          <t>QDM_figure.m</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>ODMR_to_B111.m</t>
+          <t>viscosity.m</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>plotResults_CommLine.m</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+          <t>get_transformed_maps.m</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>pick_box2.m</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>subtract_constant.m</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>test_threshold_QDM_map.m</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>demag_behavior_plot.m</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>upward_continue.m</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>dipole_fit.m</t>
+        </is>
+      </c>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
@@ -3450,7 +3446,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>clickFitFcn</t>
+          <t>plotResults_CommLine</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3465,7 +3461,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>test_fit_resonance.m</t>
+          <t>ODMR_to_B111.m</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3486,7 +3482,7 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>ODMR_to_B111_plot</t>
+          <t>clickFitFcn</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3496,15 +3492,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>ODMR_to_B111_plot.m</t>
+          <t>plotResults_CommLine.m</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
+          <t>test_fit_resonance.m</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
           <t>plotResults_CommLine.m</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
@@ -3518,7 +3518,7 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>add_ROI</t>
+          <t>ODMR_to_B111_plot</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3528,12 +3528,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>add_ROI.m</t>
+          <t>ODMR_to_B111_plot.m</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>QDM_figure.m</t>
+          <t>plotResults_CommLine.m</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -3550,7 +3550,7 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>gpu_fit_checkPlot</t>
+          <t>add_ROI</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3560,19 +3560,15 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>gpu_fit_checkPlot.m</t>
+          <t>add_ROI.m</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>fit_resonance.m</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>gpu_fit_checkPlot.m</t>
-        </is>
-      </c>
+          <t>QDM_figure.m</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
@@ -3586,75 +3582,43 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>is_B111</t>
+          <t>gpu_fit_checkPlot</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>/Users/mike/github/QDMlab/validators</t>
+          <t>/Users/mike/github/QDMlab/plotting</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>is_B111.m</t>
+          <t>gpu_fit_checkPlot.m</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>viscosity.m</t>
+          <t>fit_resonance.m</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>get_transformed_maps.m</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>pick_box2.m</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>subtract_constant.m</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>detect_binning.m</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>test_is_B111.m</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>QDM_figure.m</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>is_B111.m</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>upward_continue.m</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>dipole_fit.m</t>
-        </is>
-      </c>
+          <t>gpu_fit_checkPlot.m</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>folderMustExist</t>
+          <t>is_B111</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3664,29 +3628,65 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>folderMustExist.m</t>
+          <t>is_B111.m</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>folderMustExist.m</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
+          <t>viscosity.m</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>get_transformed_maps.m</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>pick_box2.m</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>subtract_constant.m</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>detect_binning.m</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>test_is_B111.m</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>QDM_figure.m</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>is_B111.m</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>upward_continue.m</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>dipole_fit.m</t>
+        </is>
+      </c>
       <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>mustBeBoolean</t>
+          <t>folderMustExist</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3696,69 +3696,29 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>mustBeBoolean.m</t>
+          <t>folderMustExist.m</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>model_GPU.m</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>guess_peaks.m</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>viscosity.m</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>get_tform_multi.m</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>pick_box2.m</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>filter_hot_pixels.m</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>create_masks.m</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>coercivity_result_plot.m</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>mustBeBoolean.m</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>upward_continue.m</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>dipole_fit.m</t>
-        </is>
-      </c>
+          <t>folderMustExist.m</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>foldersMustExist</t>
+          <t>mustBeBoolean</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3768,41 +3728,69 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>foldersMustExist.m</t>
+          <t>mustBeBoolean.m</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>ODMR_to_B111.m</t>
+          <t>model_GPU.m</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>demag_behavior.m</t>
+          <t>guess_peaks.m</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>align_images.m</t>
+          <t>viscosity.m</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>foldersMustExist.m</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
+          <t>get_tform_multi.m</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>pick_box2.m</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>filter_hot_pixels.m</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>create_masks.m</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>coercivity_result_plot.m</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>mustBeBoolean.m</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>upward_continue.m</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>dipole_fit.m</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>fileMustExistInFolder</t>
+          <t>foldersMustExist</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3812,25 +3800,29 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>fileMustExistInFolder.m</t>
+          <t>foldersMustExist.m</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
+          <t>ODMR_to_B111.m</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
           <t>demag_behavior.m</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>align_images.m</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>fileMustExistInFolder.m</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>foldersMustExist.m</t>
+        </is>
+      </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3842,26 +3834,34 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>B111ToBz_CommLine</t>
+          <t>fileMustExistInFolder</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>/Users/mike/github/QDMlab/Bz_and_UpCont</t>
+          <t>/Users/mike/github/QDMlab/validators</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>B111ToBz_CommLine.m</t>
+          <t>fileMustExistInFolder.m</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>B111ToBz_CommLine.m</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
+          <t>demag_behavior.m</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>align_images.m</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>fileMustExistInFolder.m</t>
+        </is>
+      </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
@@ -3874,7 +3874,7 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>upward_continue</t>
+          <t>B111ToBz_CommLine</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3884,12 +3884,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>upward_continue.m</t>
+          <t>B111ToBz_CommLine.m</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>upward_continue.m</t>
+          <t>B111ToBz_CommLine.m</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -3906,7 +3906,7 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>makeEvenArray</t>
+          <t>upward_continue</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3938,7 +3938,7 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>UpCont</t>
+          <t>makeEvenArray</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3948,24 +3948,16 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>UpCont.m</t>
+          <t>upward_continue.m</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>get_transformed_maps.m</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
           <t>upward_continue.m</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>dipole_fit_series.m</t>
-        </is>
-      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
@@ -3978,32 +3970,32 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>dipole_fit</t>
+          <t>UpCont</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>/Users/mike/github/QDMlab/net_moment_analysis</t>
+          <t>/Users/mike/github/QDMlab/Bz_and_UpCont</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>dipole_fit.m</t>
+          <t>UpCont.m</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>subtract_source.m</t>
+          <t>get_transformed_maps.m</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>testing_general.m</t>
+          <t>upward_continue.m</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>dipole_fit.m</t>
+          <t>dipole_fit_series.m</t>
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
@@ -4018,7 +4010,7 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>checkPlotFigure</t>
+          <t>dipole_fit</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4033,11 +4025,19 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
+          <t>subtract_source.m</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>testing_general.m</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
           <t>dipole_fit.m</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
@@ -4050,7 +4050,7 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>SourceFitMultiP8</t>
+          <t>checkPlotFigure</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -4060,19 +4060,15 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>SourceFitMultiP8.m</t>
+          <t>dipole_fit.m</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>FitMoment.m</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
           <t>dipole_fit.m</t>
         </is>
       </c>
+      <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
@@ -4086,7 +4082,7 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>dipole_fit_series</t>
+          <t>SourceFitMultiP8</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4096,17 +4092,17 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>dipole_fit_series.m</t>
+          <t>SourceFitMultiP8.m</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>testing_general.m</t>
+          <t>FitMoment.m</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>dipole_fit_series.m</t>
+          <t>dipole_fit.m</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -4119,6 +4115,42 @@
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr"/>
     </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>dipole_fit_series</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>/Users/mike/github/QDMlab/net_moment_analysis</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>dipole_fit_series.m</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>testing_general.m</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>dipole_fit_series.m</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/admin_tools/dependencies.xlsx
+++ b/admin_tools/dependencies.xlsx
@@ -3398,16 +3398,6 @@
           <t>is_B111</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -3420,16 +3410,6 @@
           <t>global_guess</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -3447,15 +3427,6 @@
           <t>QDM_figure</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -3513,7 +3484,6 @@
           <t>UpCont</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -3526,16 +3496,6 @@
           <t>get_image_tform_complex</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -3563,13 +3523,6 @@
           <t>QDMreshape</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -3587,15 +3540,6 @@
           <t>get_mask_extent</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -3623,13 +3567,6 @@
           <t>mustBeBoolean</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -3642,16 +3579,6 @@
           <t>UpCont</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -3664,16 +3591,6 @@
           <t>correct_cell_shape</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -3691,15 +3608,6 @@
           <t>is_B111</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -3757,7 +3665,6 @@
           <t>fileMustExistInFolder</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -3770,16 +3677,6 @@
           <t>get_laser</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
@@ -3827,9 +3724,6 @@
           <t>UpCont</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -3842,16 +3736,6 @@
           <t>is_B111</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
@@ -3884,12 +3768,6 @@
           <t>QDM_figure</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
@@ -3912,14 +3790,6 @@
           <t>mustBeBoolean</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
@@ -3932,16 +3802,6 @@
           <t>scalebar</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
@@ -3954,16 +3814,6 @@
           <t>QDM_lorentzian_fit</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
@@ -3976,16 +3826,6 @@
           <t>re_bin</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
@@ -3998,16 +3838,6 @@
           <t>get_image_tform</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
@@ -4030,14 +3860,6 @@
           <t>gpu_fit_checkPlot</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
@@ -4055,15 +3877,6 @@
           <t>xy2index</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
@@ -4076,16 +3889,6 @@
           <t>correct_cell_shape</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
@@ -4098,16 +3901,6 @@
           <t>QDM_lorentzian_fit</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
@@ -4182,16 +3975,6 @@
           <t>ask_ferro_para</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
@@ -4209,15 +3992,6 @@
           <t>SourceFitMultiP8</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
@@ -4230,16 +4004,6 @@
           <t>QDMreshape</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
@@ -4252,16 +4016,6 @@
           <t>QuadBGsub</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
@@ -4274,16 +4028,6 @@
           <t>estimate_coercivity</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
@@ -4301,15 +4045,6 @@
           <t>filter_hot_pixels</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -4322,16 +4057,6 @@
           <t>BinImage</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
@@ -4349,15 +4074,6 @@
           <t>fileMustExistInFolder</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
@@ -4370,16 +4086,6 @@
           <t>check_suffix</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -4392,16 +4098,6 @@
           <t>mustBeBoolean</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
@@ -4419,15 +4115,6 @@
           <t>QDMreshape</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
@@ -4475,9 +4162,6 @@
           <t>mustBeBoolean</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
@@ -4490,16 +4174,6 @@
           <t>show_references</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
@@ -4532,12 +4206,6 @@
           <t>is_B111</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
@@ -4550,16 +4218,6 @@
           <t>convert_to</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
@@ -4572,16 +4230,6 @@
           <t>get_transformed_maps</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
@@ -4619,11 +4267,6 @@
           <t>mustBeBoolean</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
@@ -4646,14 +4289,6 @@
           <t>reshapeImg</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
@@ -4666,16 +4301,6 @@
           <t>prepare_raw_data</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
@@ -4693,15 +4318,6 @@
           <t>detect_binning</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
@@ -4744,10 +4360,6 @@
           <t>fit_sources_series</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
@@ -4765,15 +4377,6 @@
           <t>replace_with_constant</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
@@ -4786,16 +4389,6 @@
           <t>model_gauss</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
@@ -4828,12 +4421,6 @@
           <t>fileMustExistInFolder</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
@@ -4876,10 +4463,6 @@
           <t>mustBeBoolean</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
@@ -4892,16 +4475,6 @@
           <t>pick_area</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
@@ -4914,16 +4487,6 @@
           <t>get_B111</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
@@ -4936,16 +4499,6 @@
           <t>folderMustExist</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
@@ -4978,12 +4531,6 @@
           <t>fit_source</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
@@ -4996,16 +4543,6 @@
           <t>detect_saturated</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
@@ -5048,10 +4585,6 @@
           <t>foldersMustExist</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
@@ -5064,16 +4597,6 @@
           <t>crop_data</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
@@ -5101,13 +4624,6 @@
           <t>ODMR_to_B111_plot</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
@@ -5125,15 +4641,6 @@
           <t>logMsg</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
@@ -5146,16 +4653,6 @@
           <t>MITBxByFromBz</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
@@ -5178,14 +4675,6 @@
           <t>tform_data</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
@@ -5198,16 +4687,6 @@
           <t>make_square_hole</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
@@ -5225,15 +4704,6 @@
           <t>foldersMustExist</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
@@ -5308,16 +4778,6 @@
           <t>tform_data</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
@@ -5335,15 +4795,6 @@
           <t>mustBeBoolean</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
@@ -5356,16 +4807,6 @@
           <t>RMSInBox</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
@@ -5378,16 +4819,6 @@
           <t>tform_bin_up</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
@@ -5405,15 +4836,6 @@
           <t>ask_arguments</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
@@ -5426,16 +4848,6 @@
           <t>ODMR_to_B111_plot</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
@@ -5448,16 +4860,6 @@
           <t>return_bin_data</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
@@ -5470,16 +4872,6 @@
           <t>correct_global</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
@@ -5492,16 +4884,6 @@
           <t>show_references</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
@@ -5519,15 +4901,6 @@
           <t>split_msg</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
@@ -5540,16 +4913,6 @@
           <t>SourceFitMultiP8</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
@@ -5572,14 +4935,6 @@
           <t>QuadBGsub</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
@@ -5592,16 +4947,6 @@
           <t>ask_arguments</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
@@ -5649,9 +4994,6 @@
           <t>prepare_raw_data</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
@@ -5684,12 +5026,6 @@
           <t>B111ToBz_CommLine</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
@@ -5707,15 +5043,6 @@
           <t>get_pixel_spectra</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
@@ -5728,16 +5055,6 @@
           <t>reshapeImg</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
@@ -5750,16 +5067,6 @@
           <t>get_pixel_spectra</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
@@ -5772,16 +5079,6 @@
           <t>automatic_input_ui__</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
@@ -5814,12 +5111,6 @@
           <t>mustBeBoolean</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
@@ -5837,15 +5128,6 @@
           <t>tform_bin_up</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
@@ -5858,16 +5140,6 @@
           <t>get_mask_extent</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
@@ -5890,14 +5162,6 @@
           <t>check_ODMR</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
@@ -5910,16 +5174,6 @@
           <t>add_ROI</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
@@ -5932,16 +5186,6 @@
           <t>QDMBzFromBu</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
@@ -5979,11 +5223,6 @@
           <t>is_B111</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
@@ -6006,14 +5245,6 @@
           <t>mustBeBoolean</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
@@ -6051,11 +5282,6 @@
           <t>correct_cell_shape</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
@@ -6068,16 +5294,6 @@
           <t>shift_matrix</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
